--- a/ADS-Lab2/ads-lab2.xlsx
+++ b/ADS-Lab2/ads-lab2.xlsx
@@ -3,7 +3,10 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Página1" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Q2" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Grafico Q2" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="Q3" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="Grafico Q3" sheetId="4" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -11,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
   <si>
     <t>TaxaDeChegadaMedia</t>
   </si>
@@ -105,8 +108,272 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t>NumServidores e TempoMedioDeResposta</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Q3'!$F$1</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="4285F4"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Q3'!$C$2:$C$888</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Q3'!$F$2:$F$888</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="773558857"/>
+        <c:axId val="1503977259"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="773558857"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t>Número de servidores</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:spPr/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1503977259"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1503977259"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="CCCCCC">
+                  <a:alpha val="0"/>
+                </a:srgbClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t>Tempo de resposta</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="773558857"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0">
+            <a:defRPr b="0">
+              <a:solidFill>
+                <a:srgbClr val="1A1A1A"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1362075</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5715000" cy="3533775"/>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="1" name="Chart 1" title="Gráfico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5383,4 +5650,608 @@
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="19.63"/>
+    <col customWidth="1" min="2" max="2" width="19.0"/>
+    <col customWidth="1" min="3" max="3" width="12.38"/>
+    <col customWidth="1" min="4" max="4" width="19.88"/>
+    <col customWidth="1" min="5" max="5" width="19.5"/>
+    <col customWidth="1" min="6" max="6" width="19.63"/>
+    <col customWidth="1" min="7" max="7" width="18.63"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="C2" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>218.0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>218.0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.811207</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.363636</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="C3" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>231.0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>231.0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.825632</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.182609</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="C4" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>228.0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>228.0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.896294</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.117904</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="C5" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>241.0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>241.0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.819771</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.004082</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="C6" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>239.0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>239.0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.907642</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="C7" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>231.0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>231.0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.861996</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.004184</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="C8" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>224.0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>224.0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.763241</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="C9" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="D9" s="1">
+        <v>248.0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>248.0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.811579</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="C10" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="D10" s="1">
+        <v>198.0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>198.0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.870815</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="C11" s="1">
+        <v>17.0</v>
+      </c>
+      <c r="D11" s="1">
+        <v>224.0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>224.0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.970617</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="C12" s="1">
+        <v>18.0</v>
+      </c>
+      <c r="D12" s="1">
+        <v>217.0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>217.0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.915235</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="C13" s="1">
+        <v>19.0</v>
+      </c>
+      <c r="D13" s="1">
+        <v>235.0</v>
+      </c>
+      <c r="E13" s="1">
+        <v>235.0</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.784267</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="C14" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="D14" s="1">
+        <v>235.0</v>
+      </c>
+      <c r="E14" s="1">
+        <v>235.0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.798251</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="C15" s="1">
+        <v>21.0</v>
+      </c>
+      <c r="D15" s="1">
+        <v>217.0</v>
+      </c>
+      <c r="E15" s="1">
+        <v>217.0</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.826159</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="C16" s="1">
+        <v>22.0</v>
+      </c>
+      <c r="D16" s="1">
+        <v>212.0</v>
+      </c>
+      <c r="E16" s="1">
+        <v>212.0</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.84826</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="C17" s="1">
+        <v>23.0</v>
+      </c>
+      <c r="D17" s="1">
+        <v>230.0</v>
+      </c>
+      <c r="E17" s="1">
+        <v>230.0</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.878205</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="C18" s="1">
+        <v>24.0</v>
+      </c>
+      <c r="D18" s="1">
+        <v>218.0</v>
+      </c>
+      <c r="E18" s="1">
+        <v>218.0</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0.840067</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="C19" s="1">
+        <v>25.0</v>
+      </c>
+      <c r="D19" s="1">
+        <v>226.0</v>
+      </c>
+      <c r="E19" s="1">
+        <v>226.0</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0.786008</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="C20" s="1">
+        <v>26.0</v>
+      </c>
+      <c r="D20" s="1">
+        <v>225.0</v>
+      </c>
+      <c r="E20" s="1">
+        <v>225.0</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0.82507</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="C21" s="1">
+        <v>27.0</v>
+      </c>
+      <c r="D21" s="1">
+        <v>220.0</v>
+      </c>
+      <c r="E21" s="1">
+        <v>220.0</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0.850375</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="C22" s="1">
+        <v>28.0</v>
+      </c>
+      <c r="D22" s="1">
+        <v>206.0</v>
+      </c>
+      <c r="E22" s="1">
+        <v>206.0</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0.84143</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="C23" s="1">
+        <v>29.0</v>
+      </c>
+      <c r="D23" s="1">
+        <v>206.0</v>
+      </c>
+      <c r="E23" s="1">
+        <v>206.0</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0.920893</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="C24" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="D24" s="1">
+        <v>236.0</v>
+      </c>
+      <c r="E24" s="1">
+        <v>236.0</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0.884725</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>